--- a/data/hotels_by_city/Houston/Houston_shard_86.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_86.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="225">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g55609-d2346353-Reviews-Clarion_Inn-Channelview_Texas.html</t>
   </si>
   <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Clarion-Inn-I-10-East-At-Beltway.h3970758.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,557 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d2346353-r582724167-Clarion_Inn-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>55609</t>
+  </si>
+  <si>
+    <t>2346353</t>
+  </si>
+  <si>
+    <t>582724167</t>
+  </si>
+  <si>
+    <t>05/25/2018</t>
+  </si>
+  <si>
+    <t>SO CLEAN</t>
+  </si>
+  <si>
+    <t>$55 which includes the tax, you can't beat it. My room is extremely clean, the microwave and frigerator are up-to-date and modern, there is no mold or yucky stuff in the shower or grout around the shower and toilet. Very well kept room, I'm just blown away. Hotel has a bar, restaurant with full service delivery and room service. There are real coffee cups, the glass kind, they drinking cups are even class. This room is compatible with any $150 room around. This may sound silly but I am picky about my toilet tissue. The toilet tissue is compatible with your Charmin, it is not the Ruff grain toilet tissue that you find in low budget hotels. This is a perfect stayMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>$55 which includes the tax, you can't beat it. My room is extremely clean, the microwave and frigerator are up-to-date and modern, there is no mold or yucky stuff in the shower or grout around the shower and toilet. Very well kept room, I'm just blown away. Hotel has a bar, restaurant with full service delivery and room service. There are real coffee cups, the glass kind, they drinking cups are even class. This room is compatible with any $150 room around. This may sound silly but I am picky about my toilet tissue. The toilet tissue is compatible with your Charmin, it is not the Ruff grain toilet tissue that you find in low budget hotels. This is a perfect stayMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d2346353-r575740352-Clarion_Inn-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>575740352</t>
+  </si>
+  <si>
+    <t>04/25/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terrible </t>
+  </si>
+  <si>
+    <t>This hotel is very old. An exteriour hotel. Only here for work. Would not pay out of pocket for this dump. If you want food you have to order it through the bar. And its not good at all. Been here 3x. Will not be coming back</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d2346353-r572323830-Clarion_Inn-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>572323830</t>
+  </si>
+  <si>
+    <t>04/09/2018</t>
+  </si>
+  <si>
+    <t>Great place, except....</t>
+  </si>
+  <si>
+    <t>After a long day we just needed a hot shower and a clean, comfortable bed, which this hotel provided. Checkin was easy and the room was clean and comfortable. The problem arose when we settled in for some much needed chill time and the TV was displaying the “no signal” logo. I called the front office and after much insistence I was told to unplug it and plug it back in. This didn’t work. I called back and was told the maintenance worker was gone for the day and there was nothing she could do. No offer to change rooms or discount the room fee. We have decided to always check the TV before settling in. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>After a long day we just needed a hot shower and a clean, comfortable bed, which this hotel provided. Checkin was easy and the room was clean and comfortable. The problem arose when we settled in for some much needed chill time and the TV was displaying the “no signal” logo. I called the front office and after much insistence I was told to unplug it and plug it back in. This didn’t work. I called back and was told the maintenance worker was gone for the day and there was nothing she could do. No offer to change rooms or discount the room fee. We have decided to always check the TV before settling in. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d2346353-r535202789-Clarion_Inn-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>535202789</t>
+  </si>
+  <si>
+    <t>10/22/2017</t>
+  </si>
+  <si>
+    <t>Fantastic stay</t>
+  </si>
+  <si>
+    <t>We are pilot cars in the wind energy field.  We arrived last Sunday thinking we were going to load Monday and leave.  Well, due to usual "blade" issues, we left this morning.  The whole staff was awsome.  We didn't know from day to day if we were leaving.  They worked with us and understood.  Rooms were clean and beds comfy. I am in motel about 300 nights a year and can honestly say I have not seen such a awsome housekeeping staff.  Thank you all.  We'll be back.</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d2346353-r520830411-Clarion_Inn-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>520830411</t>
+  </si>
+  <si>
+    <t>09/03/2017</t>
+  </si>
+  <si>
+    <t>Commendable low-priced motel.</t>
+  </si>
+  <si>
+    <t>This is a budget hotel that, from a distance, comes with all the typical warning signs. First of all, it’s a Clarion Inn. It’s right by the interstate. There’s not much else in the area besides liquor stores, gas stations and energy terminals. 
+But that said, this is not some flea-bag motel. Quite the opposite. The rooms are dated but clean. The staff is professional. The internet works well enough. There’s even a bar, Brewsky’s, which smells like 20-year-old ash, but still has a certain charm — especially when Shiners are being cracked open and Alan Jackson is on the jukebox. 
+I stayed at the Clarion right after Hurricane Harvey, and I must say, I was downright touched by how the motel worked to remain functional. Even though many streets were cut off — including part of an access road leading to the hotel — staff showed up for work, sometimes sleeping at the property. There was little fresh food coming in and out of Houston, and yet still the Clarion managed to put out some kind of continental breakfast. (Biscuits, etc.) The hotel was filled with emergency workers tracking grime all across the property, yet the motel remained clean. Even Brewskys was open. I was very impressed. 
+I'd only ended up here because hotel rooms in post-Harvey Houston were extraordinarily hard to come by. This was one of the only places in the city with a vacancy. I Paid...This is a budget hotel that, from a distance, comes with all the typical warning signs. First of all, it’s a Clarion Inn. It’s right by the interstate. There’s not much else in the area besides liquor stores, gas stations and energy terminals. But that said, this is not some flea-bag motel. Quite the opposite. The rooms are dated but clean. The staff is professional. The internet works well enough. There’s even a bar, Brewsky’s, which smells like 20-year-old ash, but still has a certain charm — especially when Shiners are being cracked open and Alan Jackson is on the jukebox. I stayed at the Clarion right after Hurricane Harvey, and I must say, I was downright touched by how the motel worked to remain functional. Even though many streets were cut off — including part of an access road leading to the hotel — staff showed up for work, sometimes sleeping at the property. There was little fresh food coming in and out of Houston, and yet still the Clarion managed to put out some kind of continental breakfast. (Biscuits, etc.) The hotel was filled with emergency workers tracking grime all across the property, yet the motel remained clean. Even Brewskys was open. I was very impressed. I'd only ended up here because hotel rooms in post-Harvey Houston were extraordinarily hard to come by. This was one of the only places in the city with a vacancy. I Paid $75 per night. But if the folks at this Clarion Inn can perform as they did under such duress, I have confidence that this motel is worth staying at in better times as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>This is a budget hotel that, from a distance, comes with all the typical warning signs. First of all, it’s a Clarion Inn. It’s right by the interstate. There’s not much else in the area besides liquor stores, gas stations and energy terminals. 
+But that said, this is not some flea-bag motel. Quite the opposite. The rooms are dated but clean. The staff is professional. The internet works well enough. There’s even a bar, Brewsky’s, which smells like 20-year-old ash, but still has a certain charm — especially when Shiners are being cracked open and Alan Jackson is on the jukebox. 
+I stayed at the Clarion right after Hurricane Harvey, and I must say, I was downright touched by how the motel worked to remain functional. Even though many streets were cut off — including part of an access road leading to the hotel — staff showed up for work, sometimes sleeping at the property. There was little fresh food coming in and out of Houston, and yet still the Clarion managed to put out some kind of continental breakfast. (Biscuits, etc.) The hotel was filled with emergency workers tracking grime all across the property, yet the motel remained clean. Even Brewskys was open. I was very impressed. 
+I'd only ended up here because hotel rooms in post-Harvey Houston were extraordinarily hard to come by. This was one of the only places in the city with a vacancy. I Paid...This is a budget hotel that, from a distance, comes with all the typical warning signs. First of all, it’s a Clarion Inn. It’s right by the interstate. There’s not much else in the area besides liquor stores, gas stations and energy terminals. But that said, this is not some flea-bag motel. Quite the opposite. The rooms are dated but clean. The staff is professional. The internet works well enough. There’s even a bar, Brewsky’s, which smells like 20-year-old ash, but still has a certain charm — especially when Shiners are being cracked open and Alan Jackson is on the jukebox. I stayed at the Clarion right after Hurricane Harvey, and I must say, I was downright touched by how the motel worked to remain functional. Even though many streets were cut off — including part of an access road leading to the hotel — staff showed up for work, sometimes sleeping at the property. There was little fresh food coming in and out of Houston, and yet still the Clarion managed to put out some kind of continental breakfast. (Biscuits, etc.) The hotel was filled with emergency workers tracking grime all across the property, yet the motel remained clean. Even Brewskys was open. I was very impressed. I'd only ended up here because hotel rooms in post-Harvey Houston were extraordinarily hard to come by. This was one of the only places in the city with a vacancy. I Paid $75 per night. But if the folks at this Clarion Inn can perform as they did under such duress, I have confidence that this motel is worth staying at in better times as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d2346353-r472335519-Clarion_Inn-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>472335519</t>
+  </si>
+  <si>
+    <t>04/03/2017</t>
+  </si>
+  <si>
+    <t>Clarion Inn- try to avoid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dated and unappealing motel with poor amenities. strategically positioned in the middle of nowhere, walking around may result in stepping down the earth or getting robbed. on positive end, staff is friendly and rooms are clean. </t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d2346353-r426909381-Clarion_Inn-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>426909381</t>
+  </si>
+  <si>
+    <t>10/11/2016</t>
+  </si>
+  <si>
+    <t>Slum haven</t>
+  </si>
+  <si>
+    <t>For $85.00/night, horrible.  They lost my registration,  then they lost the corporate credit card info twice, when I checked in the card info was "missing" for a third time and they required my personal card, because corporate was closed. My room still had dirty dishes and unmade bed. They advised 6am breakfast buffet,  again a total lie. Its order off the menu and 7am. Its been one pain after another.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d2346353-r425585726-Clarion_Inn-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>425585726</t>
+  </si>
+  <si>
+    <t>10/06/2016</t>
+  </si>
+  <si>
+    <t>i would recommend</t>
+  </si>
+  <si>
+    <t>the clarion inn is the place to be.THE BAR IS SO MUCH FUN.talk about what happens in brewskys stays in brewskysthe staff is so lovely and very welcomingoverall i had a very good time herei felt like i was home front desk is very sweet especially the manager</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d2346353-r422886048-Clarion_Inn-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>422886048</t>
+  </si>
+  <si>
+    <t>09/27/2016</t>
+  </si>
+  <si>
+    <t>Great</t>
+  </si>
+  <si>
+    <t>i had such a great experience herefood is great, breakfast was a menu you could order whatever you were craving. yummytvs are flat screen bed are so wonderful and comfystaff was absolutely wonderful</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d2346353-r369523235-Clarion_Inn-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>369523235</t>
+  </si>
+  <si>
+    <t>05/02/2016</t>
+  </si>
+  <si>
+    <t>Good clean rooms &amp;Restaraunt staff.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The room was nice and clean, good shower pressure comfotable beds,Restaraunt had good food and Bartender Kayla she was very nice. Front desk service was great too. Very friendly staff. I left my headsets in my room and they mailed them back to me. Wish they would get that pool fixed though. Overall great stay! </t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d2346353-r368762725-Clarion_Inn-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>368762725</t>
+  </si>
+  <si>
+    <t>04/29/2016</t>
+  </si>
+  <si>
+    <t>Bedbugs and Drugs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Although the staff is friendly and very accommodating, that's where the positive ends. This motel is in a sketchy neighborhood, is not clean (carpets are black and worn, has bedbugs), has subpar wifi, and is right by the highway, so it's loud. I would definitely NOT recommend! To anyone. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d2346353-r352470593-Clarion_Inn-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>352470593</t>
+  </si>
+  <si>
+    <t>03/02/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Needs improvement </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The housekeeping staff does an exceptionally good job cleaning the rooms. The beds are fairly comfortable. But that's where the good stops. The wifi is non-existent. The tv reception is hit and miss. Waitresses in the restaurant and bar are not interested in serving food or drinks. At least the one in the bar admits that she's a terrible waitress as soon as you sit down. They are one of the few places that doesn't provide a free breakfast. If I'm in Houston for a night or 2 max, I'll stay here. Any longer and I go to the best western heritage inn. </t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d2346353-r338432504-Clarion_Inn-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>338432504</t>
+  </si>
+  <si>
+    <t>01/08/2016</t>
+  </si>
+  <si>
+    <t>Just so happy</t>
+  </si>
+  <si>
+    <t>The desk clerk was just so thrilled to check us in....not! The rooms are clean but the beds are full sized not queen, so be prepared. There is only stairs so be prepared if you get a second floor to take stairs. To me no big deal, to others it could be. It is a little dated, could use an update but not too bad. Not sure about food or bar I did not go to either.</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d2346353-r295801792-Clarion_Inn-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>295801792</t>
+  </si>
+  <si>
+    <t>08/04/2015</t>
+  </si>
+  <si>
+    <t>Looks can be Deceiving</t>
+  </si>
+  <si>
+    <t>The Clarion Hotel in Channelview Texas isn't such a bad hotel as far as amenities go and the look but once inside staying at the hotel overnight you find things that are not up to what I would say aren't up standards to be a part of the Marriott family of hotels well below that of Motel 6 I would say. To start my biggest concern as I got into my room was the spotty Wi-Fi I mean the Wi-Fi here goes in and out you login then maybe three minutes later it goes right back off so you would have to login again and this is going to go on for the remainder of the time that you use their Wi-Fi so I just gave up and decided to use my own data on my phone and use my phone as a Wi-Fi hotspot. Another problem that I found was with the toilets at this establishment. You have to hold down the handle for quite a long time just to get the toilet to flush now this is my first time staying in Houston so I don't know if that is just a Houston Texas thing or is it something wrong with this hotel. The gym accommodations are straight from the 1980s. Now even though I didn't experience it some guests that are staying in this hotel while I am here are experiencing a roach infestation so I'm being...The Clarion Hotel in Channelview Texas isn't such a bad hotel as far as amenities go and the look but once inside staying at the hotel overnight you find things that are not up to what I would say aren't up standards to be a part of the Marriott family of hotels well below that of Motel 6 I would say. To start my biggest concern as I got into my room was the spotty Wi-Fi I mean the Wi-Fi here goes in and out you login then maybe three minutes later it goes right back off so you would have to login again and this is going to go on for the remainder of the time that you use their Wi-Fi so I just gave up and decided to use my own data on my phone and use my phone as a Wi-Fi hotspot. Another problem that I found was with the toilets at this establishment. You have to hold down the handle for quite a long time just to get the toilet to flush now this is my first time staying in Houston so I don't know if that is just a Houston Texas thing or is it something wrong with this hotel. The gym accommodations are straight from the 1980s. Now even though I didn't experience it some guests that are staying in this hotel while I am here are experiencing a roach infestation so I'm being cautious and putting all my stuff on the chair nothing on the floor so I don't take roaches with me back to California. Those are the few small and big negatives that I found with this hotel. The positives on the other hand it looks like a OK hotel I mean from the outside it's about A seven out of 10 inside the room from first glance it's got Okay accommodations there's enough lighting in room. As for a one bed king-size it's a  reasonable size with ample room to stretch your legs and walk around The TV is a 32 inch flat screen, the problem I have with the TV is the cable is a bit staticky for for cable access, I would've thought they're getting their cable through a pair of old school rabbit ears the way it looks. In closing. Would I stay here again? No. Star rating? 1 star or a 3 out of 10...MoreShow less</t>
+  </si>
+  <si>
+    <t>The Clarion Hotel in Channelview Texas isn't such a bad hotel as far as amenities go and the look but once inside staying at the hotel overnight you find things that are not up to what I would say aren't up standards to be a part of the Marriott family of hotels well below that of Motel 6 I would say. To start my biggest concern as I got into my room was the spotty Wi-Fi I mean the Wi-Fi here goes in and out you login then maybe three minutes later it goes right back off so you would have to login again and this is going to go on for the remainder of the time that you use their Wi-Fi so I just gave up and decided to use my own data on my phone and use my phone as a Wi-Fi hotspot. Another problem that I found was with the toilets at this establishment. You have to hold down the handle for quite a long time just to get the toilet to flush now this is my first time staying in Houston so I don't know if that is just a Houston Texas thing or is it something wrong with this hotel. The gym accommodations are straight from the 1980s. Now even though I didn't experience it some guests that are staying in this hotel while I am here are experiencing a roach infestation so I'm being...The Clarion Hotel in Channelview Texas isn't such a bad hotel as far as amenities go and the look but once inside staying at the hotel overnight you find things that are not up to what I would say aren't up standards to be a part of the Marriott family of hotels well below that of Motel 6 I would say. To start my biggest concern as I got into my room was the spotty Wi-Fi I mean the Wi-Fi here goes in and out you login then maybe three minutes later it goes right back off so you would have to login again and this is going to go on for the remainder of the time that you use their Wi-Fi so I just gave up and decided to use my own data on my phone and use my phone as a Wi-Fi hotspot. Another problem that I found was with the toilets at this establishment. You have to hold down the handle for quite a long time just to get the toilet to flush now this is my first time staying in Houston so I don't know if that is just a Houston Texas thing or is it something wrong with this hotel. The gym accommodations are straight from the 1980s. Now even though I didn't experience it some guests that are staying in this hotel while I am here are experiencing a roach infestation so I'm being cautious and putting all my stuff on the chair nothing on the floor so I don't take roaches with me back to California. Those are the few small and big negatives that I found with this hotel. The positives on the other hand it looks like a OK hotel I mean from the outside it's about A seven out of 10 inside the room from first glance it's got Okay accommodations there's enough lighting in room. As for a one bed king-size it's a  reasonable size with ample room to stretch your legs and walk around The TV is a 32 inch flat screen, the problem I have with the TV is the cable is a bit staticky for for cable access, I would've thought they're getting their cable through a pair of old school rabbit ears the way it looks. In closing. Would I stay here again? No. Star rating? 1 star or a 3 out of 10...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d2346353-r294646262-Clarion_Inn-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>294646262</t>
+  </si>
+  <si>
+    <t>08/01/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Used to be great </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Have stayed here a few times but as the last couple times stay was not so great was woke up at 2:30 am by loud drunks called front desk 2 times on same night told office again at check out there was no satisfaction there is no free breakfast was not pleased at all with this stay </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d2346353-r271025590-Clarion_Inn-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>271025590</t>
+  </si>
+  <si>
+    <t>05/09/2015</t>
+  </si>
+  <si>
+    <t>Met my business needs.</t>
+  </si>
+  <si>
+    <t>Stayed here on 2 week nights because my business needs were about 5 min up the street.  It was easy to find from IH 10 or 8.  It looks better inside than outside.  I was hesitant at first because there were 18 wheelers parked everywhere and oil field workers walking around.  As I was making trips to my car I kept seeing a young male non employee with a video cam in hand.  He was acting suspicious and I saw him videoing in a window with curtains open.  I reported it to front desk and they took it seriously, even had an employee go with me to check it out.  We didn't see the guy anymore.  Guess I scared him off after seeing him 3 times.  I was told by the employee that he would stay and keep an eye out until the Security Guard came in.  I did later see Security, and he was apparently recording Lic plate numbers.  I parked near his car. ; )   On check out I did see a Sheriffs deputy in parking lot.
+When I ask for a quiet room the staff was eager to help.  The room was spotlessly clean, which is important to me.  Only complaints I had about room was that bathroom door did not close, and all the small freezer space was taken up by frozen tv dinners that were stuck in the ice.  This caused me to have to...Stayed here on 2 week nights because my business needs were about 5 min up the street.  It was easy to find from IH 10 or 8.  It looks better inside than outside.  I was hesitant at first because there were 18 wheelers parked everywhere and oil field workers walking around.  As I was making trips to my car I kept seeing a young male non employee with a video cam in hand.  He was acting suspicious and I saw him videoing in a window with curtains open.  I reported it to front desk and they took it seriously, even had an employee go with me to check it out.  We didn't see the guy anymore.  Guess I scared him off after seeing him 3 times.  I was told by the employee that he would stay and keep an eye out until the Security Guard came in.  I did later see Security, and he was apparently recording Lic plate numbers.  I parked near his car. ; )   On check out I did see a Sheriffs deputy in parking lot.When I ask for a quiet room the staff was eager to help.  The room was spotlessly clean, which is important to me.  Only complaints I had about room was that bathroom door did not close, and all the small freezer space was taken up by frozen tv dinners that were stuck in the ice.  This caused me to have to get ice and deal with changing it twice a day to keep my stuff frozen.  Everywhere I went was very neat and clean.  Always saw staff working on something and all were very friendly and helpful.  Very nice group of employees.  They all seem very customer focused.  I liked that I was informed at check in that breakfast was $7.99 and not free.  That gave me option to decline without any surprises later.  There is a pool &amp; bar which looked nice, but I don't use either.I would like to suggest that frozen food incidentals be kept at office and a placard could be placed on refrig., since there is very limited space available.  It also could pose a safety issue, as there is no way to determine if it has been thawed and refrozen, or tampered with in some way.  I will stay here again if I need to return on business.  Not so sure if its a weekend.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>ClarionInn77530, Manager at Clarion Inn, responded to this reviewResponded May 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 11, 2015</t>
+  </si>
+  <si>
+    <t>Stayed here on 2 week nights because my business needs were about 5 min up the street.  It was easy to find from IH 10 or 8.  It looks better inside than outside.  I was hesitant at first because there were 18 wheelers parked everywhere and oil field workers walking around.  As I was making trips to my car I kept seeing a young male non employee with a video cam in hand.  He was acting suspicious and I saw him videoing in a window with curtains open.  I reported it to front desk and they took it seriously, even had an employee go with me to check it out.  We didn't see the guy anymore.  Guess I scared him off after seeing him 3 times.  I was told by the employee that he would stay and keep an eye out until the Security Guard came in.  I did later see Security, and he was apparently recording Lic plate numbers.  I parked near his car. ; )   On check out I did see a Sheriffs deputy in parking lot.
+When I ask for a quiet room the staff was eager to help.  The room was spotlessly clean, which is important to me.  Only complaints I had about room was that bathroom door did not close, and all the small freezer space was taken up by frozen tv dinners that were stuck in the ice.  This caused me to have to...Stayed here on 2 week nights because my business needs were about 5 min up the street.  It was easy to find from IH 10 or 8.  It looks better inside than outside.  I was hesitant at first because there were 18 wheelers parked everywhere and oil field workers walking around.  As I was making trips to my car I kept seeing a young male non employee with a video cam in hand.  He was acting suspicious and I saw him videoing in a window with curtains open.  I reported it to front desk and they took it seriously, even had an employee go with me to check it out.  We didn't see the guy anymore.  Guess I scared him off after seeing him 3 times.  I was told by the employee that he would stay and keep an eye out until the Security Guard came in.  I did later see Security, and he was apparently recording Lic plate numbers.  I parked near his car. ; )   On check out I did see a Sheriffs deputy in parking lot.When I ask for a quiet room the staff was eager to help.  The room was spotlessly clean, which is important to me.  Only complaints I had about room was that bathroom door did not close, and all the small freezer space was taken up by frozen tv dinners that were stuck in the ice.  This caused me to have to get ice and deal with changing it twice a day to keep my stuff frozen.  Everywhere I went was very neat and clean.  Always saw staff working on something and all were very friendly and helpful.  Very nice group of employees.  They all seem very customer focused.  I liked that I was informed at check in that breakfast was $7.99 and not free.  That gave me option to decline without any surprises later.  There is a pool &amp; bar which looked nice, but I don't use either.I would like to suggest that frozen food incidentals be kept at office and a placard could be placed on refrig., since there is very limited space available.  It also could pose a safety issue, as there is no way to determine if it has been thawed and refrozen, or tampered with in some way.  I will stay here again if I need to return on business.  Not so sure if its a weekend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d2346353-r244998490-Clarion_Inn-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>244998490</t>
+  </si>
+  <si>
+    <t>12/18/2014</t>
+  </si>
+  <si>
+    <t>Quiet, clean, but old</t>
+  </si>
+  <si>
+    <t>We stayed one night here. We got a room by the pool in the building furthest from the interstate. It was surprisingly quiet. The only problem was none of the ice machines worked and we had to get ice from the main office. The continental breakfast was more than adequate. The total  price was very good as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>ClarionInn77530, Manager at Clarion Inn, responded to this reviewResponded December 22, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 22, 2014</t>
+  </si>
+  <si>
+    <t>We stayed one night here. We got a room by the pool in the building furthest from the interstate. It was surprisingly quiet. The only problem was none of the ice machines worked and we had to get ice from the main office. The continental breakfast was more than adequate. The total  price was very good as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d2346353-r231475354-Clarion_Inn-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>231475354</t>
+  </si>
+  <si>
+    <t>09/28/2014</t>
+  </si>
+  <si>
+    <t>My home away from home!!</t>
+  </si>
+  <si>
+    <t>Absolutely my favorite hotel. Wish I could pack this one up and take it with me!! Front desk and housekeeping are the BEST! Rooms are clean and they even have real coffee mugs and glasses for water in the rooms. Nice touch!!! They don't have the complimentary breakfast BUT the restaurant in the hotel is very reasonable and good, plus they do offer a breakfast buffet, for a price. The manager of the restaurant happened to be my server and he always has a smile and goes the extra mile.  The bar is a good place to unwind after a long day or just splashing around in the pool, and don't forget you can always order food from the restaurant if you don't want to travel out. The grounds are very well kept, makes you think you're in the tropics.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>ClarionInn77530, Manager at Clarion Inn, responded to this reviewResponded October 1, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 1, 2014</t>
+  </si>
+  <si>
+    <t>Absolutely my favorite hotel. Wish I could pack this one up and take it with me!! Front desk and housekeeping are the BEST! Rooms are clean and they even have real coffee mugs and glasses for water in the rooms. Nice touch!!! They don't have the complimentary breakfast BUT the restaurant in the hotel is very reasonable and good, plus they do offer a breakfast buffet, for a price. The manager of the restaurant happened to be my server and he always has a smile and goes the extra mile.  The bar is a good place to unwind after a long day or just splashing around in the pool, and don't forget you can always order food from the restaurant if you don't want to travel out. The grounds are very well kept, makes you think you're in the tropics.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d2346353-r211194114-Clarion_Inn-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>211194114</t>
+  </si>
+  <si>
+    <t>06/20/2014</t>
+  </si>
+  <si>
+    <t>Good stay but far away !</t>
+  </si>
+  <si>
+    <t>+ Helpful staff, Comfortably big rooms, Ample parking space, In-house bar &amp; restaurant_ Traffic sound from the adjacent highway, pretty far from the city center and key areas of Houston if you have work in the city, not much of entertainment areas nearbyMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>+ Helpful staff, Comfortably big rooms, Ample parking space, In-house bar &amp; restaurant_ Traffic sound from the adjacent highway, pretty far from the city center and key areas of Houston if you have work in the city, not much of entertainment areas nearbyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d2346353-r205058198-Clarion_Inn-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>205058198</t>
+  </si>
+  <si>
+    <t>05/11/2014</t>
+  </si>
+  <si>
+    <t>Work Related Stay</t>
+  </si>
+  <si>
+    <t>I was in Channelview on business, I was there to oversee a project for the company I work for. It was a little difficult to find at first and when I first arrived I was a little hesitant but the staff quickly quelled my doubts. The front desk staff are great and for someone working the rooms are perfect, clean, fridge, microwave and coffee maker. The staff are all friendly from the front desk to dining room and even the cleaning staff are full of advice about where to shop or eat. There is a pub and restaurant in the lobby but if that's not what you're looking for 5 minutes away and various choices available. This place has free wifi and very good rates. This isn't a holiday type area but if you are working in the East Houston area then this is definitely a good choice, I had 2 coworkers move here from one of the top 2 rated hotels in Channelview and this is now their number one pick for this area. Thank you everyone at Clarion for a great few weeks MoreShow less</t>
+  </si>
+  <si>
+    <t>I was in Channelview on business, I was there to oversee a project for the company I work for. It was a little difficult to find at first and when I first arrived I was a little hesitant but the staff quickly quelled my doubts. The front desk staff are great and for someone working the rooms are perfect, clean, fridge, microwave and coffee maker. The staff are all friendly from the front desk to dining room and even the cleaning staff are full of advice about where to shop or eat. There is a pub and restaurant in the lobby but if that's not what you're looking for 5 minutes away and various choices available. This place has free wifi and very good rates. This isn't a holiday type area but if you are working in the East Houston area then this is definitely a good choice, I had 2 coworkers move here from one of the top 2 rated hotels in Channelview and this is now their number one pick for this area. Thank you everyone at Clarion for a great few weeks More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d2346353-r204628862-Clarion_Inn-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>204628862</t>
+  </si>
+  <si>
+    <t>05/08/2014</t>
+  </si>
+  <si>
+    <t>Needs some upgrading</t>
+  </si>
+  <si>
+    <t>The room was clean and orderly; however, it did not have a refrigerator microwave was posted on their website. The breakfast was good and the help was very nice. I would stay here again, but I would ask for a room that has a refrigerator and microwave. It is evident that some rooms are not being used. They need to get rid of the 18-wheel trailers parkd in their rear. When added bonus of the room is it's near the rail yards. If you like train noises this is the place to stay. Personally I do.MoreShow less</t>
+  </si>
+  <si>
+    <t>ClarionInn77530, Manager at Clarion Inn, responded to this reviewResponded October 2, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 2, 2014</t>
+  </si>
+  <si>
+    <t>The room was clean and orderly; however, it did not have a refrigerator microwave was posted on their website. The breakfast was good and the help was very nice. I would stay here again, but I would ask for a room that has a refrigerator and microwave. It is evident that some rooms are not being used. They need to get rid of the 18-wheel trailers parkd in their rear. When added bonus of the room is it's near the rail yards. If you like train noises this is the place to stay. Personally I do.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d2346353-r187169177-Clarion_Inn-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>187169177</t>
+  </si>
+  <si>
+    <t>12/09/2013</t>
+  </si>
+  <si>
+    <t>A great place to be stuck at</t>
+  </si>
+  <si>
+    <t>I stayed here on a business trip to Channelview.  Work wrapped up early in the afternoon and my flight out of Hobby wasn't until the next morning and since I was without a car I was stuck at the hotel.  My stay was outstanding.  The pool was very refreshing and I made great use of the bar for both dinner and drinks.  The room was decent and looked much better than when it was a Holiday Inn (last say at this location was 7/2008).  Overall I was very pleased and look forward to my next  visit.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>I stayed here on a business trip to Channelview.  Work wrapped up early in the afternoon and my flight out of Hobby wasn't until the next morning and since I was without a car I was stuck at the hotel.  My stay was outstanding.  The pool was very refreshing and I made great use of the bar for both dinner and drinks.  The room was decent and looked much better than when it was a Holiday Inn (last say at this location was 7/2008).  Overall I was very pleased and look forward to my next  visit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d2346353-r180479489-Clarion_Inn-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>180479489</t>
+  </si>
+  <si>
+    <t>10/10/2013</t>
+  </si>
+  <si>
+    <t>Made me feel right at home!</t>
+  </si>
+  <si>
+    <t>The entire staff was so warm and welcoming! They were willing to do anything to make sure their guests left with smiles on their faces. If you're ever out in Channelview, Texas and need a place to stay this is it!MoreShow less</t>
+  </si>
+  <si>
+    <t>The entire staff was so warm and welcoming! They were willing to do anything to make sure their guests left with smiles on their faces. If you're ever out in Channelview, Texas and need a place to stay this is it!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d2346353-r180255267-Clarion_Inn-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>180255267</t>
+  </si>
+  <si>
+    <t>10/08/2013</t>
+  </si>
+  <si>
+    <t>Great place to stay.</t>
+  </si>
+  <si>
+    <t>We stayed two nights. Was very pleased. Very clean and very good service. We would recommend this hotel for stay! Easy access to interstate and surrounding area. Very friendly staff! The restaurant was fine. Not any more expensive than deliveries and the food was fine! We enjoyed the bar as well. All the people are so friendly. The room we had with a king size bed could of been bigger but it was fine. I was impressed they came in changed our linens and towels and cleaned while we were away after our first nights stay. I like that.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>We stayed two nights. Was very pleased. Very clean and very good service. We would recommend this hotel for stay! Easy access to interstate and surrounding area. Very friendly staff! The restaurant was fine. Not any more expensive than deliveries and the food was fine! We enjoyed the bar as well. All the people are so friendly. The room we had with a king size bed could of been bigger but it was fine. I was impressed they came in changed our linens and towels and cleaned while we were away after our first nights stay. I like that.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d2346353-r131251955-Clarion_Inn-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>131251955</t>
+  </si>
+  <si>
+    <t>06/04/2012</t>
+  </si>
+  <si>
+    <t>Always good for me</t>
+  </si>
+  <si>
+    <t>I have been using this Hotel for a few years now it used to be the Holiday Inn it has friendly staff a great bar that has Karaoke at weekends.  I must admit the restaurant is not the greatest however there are lots of restaurants nearby if you like a good steak I recommend the Salt Grass restaurant.There is a nice outdoor swimming pool, I have always found the rooms clean and tidy.It’s near the shipping docks where I do my businessMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>ClarionInn77530, General Manager at Clarion Inn, responded to this reviewResponded June 10, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 10, 2013</t>
+  </si>
+  <si>
+    <t>I have been using this Hotel for a few years now it used to be the Holiday Inn it has friendly staff a great bar that has Karaoke at weekends.  I must admit the restaurant is not the greatest however there are lots of restaurants nearby if you like a good steak I recommend the Salt Grass restaurant.There is a nice outdoor swimming pool, I have always found the rooms clean and tidy.It’s near the shipping docks where I do my businessMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d2346353-r125053545-Clarion_Inn-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>125053545</t>
+  </si>
+  <si>
+    <t>02/22/2012</t>
+  </si>
+  <si>
+    <t>Good for the area</t>
+  </si>
+  <si>
+    <t>Stayed there many times.  It used to be a Holiday Inn.  Love the staff.  Cheep drinks at the bar.  Rooms have been clean enough except the last time there was a big, dead roach on the foor.  I whish they had basic cable.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>Stayed there many times.  It used to be a Holiday Inn.  Love the staff.  Cheep drinks at the bar.  Rooms have been clean enough except the last time there was a big, dead roach on the foor.  I whish they had basic cable.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1092,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1124,1693 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1079</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1079</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1079</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1079</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" t="s">
+        <v>61</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1079</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1079</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>87</v>
+      </c>
+      <c r="O7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1079</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>87</v>
+      </c>
+      <c r="O8" t="s">
+        <v>61</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1079</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" t="s">
+        <v>95</v>
+      </c>
+      <c r="K9" t="s">
+        <v>96</v>
+      </c>
+      <c r="L9" t="s">
+        <v>97</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O9" t="s">
+        <v>99</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1079</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>101</v>
+      </c>
+      <c r="J10" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" t="s">
+        <v>103</v>
+      </c>
+      <c r="L10" t="s">
+        <v>104</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>105</v>
+      </c>
+      <c r="O10" t="s">
+        <v>61</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1079</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>107</v>
+      </c>
+      <c r="J11" t="s">
+        <v>108</v>
+      </c>
+      <c r="K11" t="s">
+        <v>109</v>
+      </c>
+      <c r="L11" t="s">
+        <v>110</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>111</v>
+      </c>
+      <c r="O11" t="s">
+        <v>61</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1079</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>113</v>
+      </c>
+      <c r="J12" t="s">
+        <v>114</v>
+      </c>
+      <c r="K12" t="s">
+        <v>115</v>
+      </c>
+      <c r="L12" t="s">
+        <v>116</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>105</v>
+      </c>
+      <c r="O12" t="s">
+        <v>61</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1079</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>117</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>118</v>
+      </c>
+      <c r="J13" t="s">
+        <v>119</v>
+      </c>
+      <c r="K13" t="s">
+        <v>120</v>
+      </c>
+      <c r="L13" t="s">
+        <v>121</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>122</v>
+      </c>
+      <c r="O13" t="s">
+        <v>61</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1079</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>124</v>
+      </c>
+      <c r="J14" t="s">
+        <v>125</v>
+      </c>
+      <c r="K14" t="s">
+        <v>126</v>
+      </c>
+      <c r="L14" t="s">
+        <v>127</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>128</v>
+      </c>
+      <c r="O14" t="s">
+        <v>61</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1079</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>129</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>130</v>
+      </c>
+      <c r="J15" t="s">
+        <v>131</v>
+      </c>
+      <c r="K15" t="s">
+        <v>132</v>
+      </c>
+      <c r="L15" t="s">
+        <v>133</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s"/>
+      <c r="O15" t="s"/>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1079</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>135</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>136</v>
+      </c>
+      <c r="J16" t="s">
+        <v>137</v>
+      </c>
+      <c r="K16" t="s">
+        <v>138</v>
+      </c>
+      <c r="L16" t="s">
+        <v>139</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1079</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>140</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>141</v>
+      </c>
+      <c r="J17" t="s">
+        <v>142</v>
+      </c>
+      <c r="K17" t="s">
+        <v>143</v>
+      </c>
+      <c r="L17" t="s">
+        <v>144</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>145</v>
+      </c>
+      <c r="O17" t="s">
+        <v>61</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>146</v>
+      </c>
+      <c r="X17" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1079</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>149</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>150</v>
+      </c>
+      <c r="J18" t="s">
+        <v>151</v>
+      </c>
+      <c r="K18" t="s">
+        <v>152</v>
+      </c>
+      <c r="L18" t="s">
+        <v>153</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>154</v>
+      </c>
+      <c r="O18" t="s">
+        <v>155</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>156</v>
+      </c>
+      <c r="X18" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1079</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>159</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>160</v>
+      </c>
+      <c r="J19" t="s">
+        <v>161</v>
+      </c>
+      <c r="K19" t="s">
+        <v>162</v>
+      </c>
+      <c r="L19" t="s">
+        <v>163</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>164</v>
+      </c>
+      <c r="O19" t="s">
+        <v>61</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>165</v>
+      </c>
+      <c r="X19" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1079</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>168</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>169</v>
+      </c>
+      <c r="J20" t="s">
+        <v>170</v>
+      </c>
+      <c r="K20" t="s">
+        <v>171</v>
+      </c>
+      <c r="L20" t="s">
+        <v>172</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>173</v>
+      </c>
+      <c r="O20" t="s">
+        <v>61</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>165</v>
+      </c>
+      <c r="X20" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1079</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>175</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>176</v>
+      </c>
+      <c r="J21" t="s">
+        <v>177</v>
+      </c>
+      <c r="K21" t="s">
+        <v>178</v>
+      </c>
+      <c r="L21" t="s">
+        <v>179</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s"/>
+      <c r="O21" t="s"/>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>165</v>
+      </c>
+      <c r="X21" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1079</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>181</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>182</v>
+      </c>
+      <c r="J22" t="s">
+        <v>183</v>
+      </c>
+      <c r="K22" t="s">
+        <v>184</v>
+      </c>
+      <c r="L22" t="s">
+        <v>185</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>173</v>
+      </c>
+      <c r="O22" t="s">
+        <v>99</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>186</v>
+      </c>
+      <c r="X22" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1079</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>189</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>190</v>
+      </c>
+      <c r="J23" t="s">
+        <v>191</v>
+      </c>
+      <c r="K23" t="s">
+        <v>192</v>
+      </c>
+      <c r="L23" t="s">
+        <v>193</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>194</v>
+      </c>
+      <c r="O23" t="s">
+        <v>61</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>186</v>
+      </c>
+      <c r="X23" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1079</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>196</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>197</v>
+      </c>
+      <c r="J24" t="s">
+        <v>198</v>
+      </c>
+      <c r="K24" t="s">
+        <v>199</v>
+      </c>
+      <c r="L24" t="s">
+        <v>200</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s"/>
+      <c r="O24" t="s"/>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>186</v>
+      </c>
+      <c r="X24" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1079</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>202</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>203</v>
+      </c>
+      <c r="J25" t="s">
+        <v>204</v>
+      </c>
+      <c r="K25" t="s">
+        <v>205</v>
+      </c>
+      <c r="L25" t="s">
+        <v>206</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>207</v>
+      </c>
+      <c r="O25" t="s">
+        <v>67</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>186</v>
+      </c>
+      <c r="X25" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1079</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>209</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>210</v>
+      </c>
+      <c r="J26" t="s">
+        <v>211</v>
+      </c>
+      <c r="K26" t="s">
+        <v>212</v>
+      </c>
+      <c r="L26" t="s">
+        <v>213</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>214</v>
+      </c>
+      <c r="O26" t="s">
+        <v>61</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>3</v>
+      </c>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>215</v>
+      </c>
+      <c r="X26" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1079</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>218</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>219</v>
+      </c>
+      <c r="J27" t="s">
+        <v>220</v>
+      </c>
+      <c r="K27" t="s">
+        <v>221</v>
+      </c>
+      <c r="L27" t="s">
+        <v>222</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>223</v>
+      </c>
+      <c r="O27" t="s">
+        <v>61</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>3</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>215</v>
+      </c>
+      <c r="X27" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_86.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_86.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="342">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,60 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/06/2018</t>
+    <t>09/03/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d2346353-r601105070-Clarion_Inn-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>55609</t>
+  </si>
+  <si>
+    <t>2346353</t>
+  </si>
+  <si>
+    <t>601105070</t>
+  </si>
+  <si>
+    <t>07/30/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Would not stay again. Dumpy </t>
+  </si>
+  <si>
+    <t>I understand that this is a low budget hotel but there were many things that could have been fixed. For example, there were the same pieces of trash on the ground for the 3 days that we were there and we watched maids walk by without acknowledging. There was also a small roach in our bathroom and our feet turned black from the carpet. People were also being loud by the pool well after midnight and nobody stopped them. Some rooms smelled of straight weed when walking by. There were shady cars in the parking lot that were there all day with the engine running. It is a dump. Breakfast wasn’t bad though.. MoreShow less</t>
+  </si>
+  <si>
+    <t>I understand that this is a low budget hotel but there were many things that could have been fixed. For example, there were the same pieces of trash on the ground for the 3 days that we were there and we watched maids walk by without acknowledging. There was also a small roach in our bathroom and our feet turned black from the carpet. People were also being loud by the pool well after midnight and nobody stopped them. Some rooms smelled of straight weed when walking by. There were shady cars in the parking lot that were there all day with the engine running. It is a dump. Breakfast wasn’t bad though.. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d2346353-r600902285-Clarion_Inn-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>600902285</t>
+  </si>
+  <si>
+    <t>07/29/2018</t>
+  </si>
+  <si>
+    <t>Beware!!!</t>
+  </si>
+  <si>
+    <t>One star is way too much! Where do I begin? Pulled up and the parking lot was straight up a party. We pulled in to go do our check in, my husband was inside waiting in line and the old man that’s a security guard came out and told me I needed to move our truck because he could smell our exhaust. I highly doubt that through two doors you can smell the tiny bit of exhaust that a Tacoma puts out. Why would your put your driveway by the door if you’re so worried about exhaust? He was beyond rude. The bar was so loud and kids were running around up and down the hall way and lobby. It was disgusting, I wouldn’t let my dog stay in this hotel. We told the man behind the counter we were not staying there under those conditions. I will be contacting our bank over your charge on my credit card. Beware do not book at this nasty hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>One star is way too much! Where do I begin? Pulled up and the parking lot was straight up a party. We pulled in to go do our check in, my husband was inside waiting in line and the old man that’s a security guard came out and told me I needed to move our truck because he could smell our exhaust. I highly doubt that through two doors you can smell the tiny bit of exhaust that a Tacoma puts out. Why would your put your driveway by the door if you’re so worried about exhaust? He was beyond rude. The bar was so loud and kids were running around up and down the hall way and lobby. It was disgusting, I wouldn’t let my dog stay in this hotel. We told the man behind the counter we were not staying there under those conditions. I will be contacting our bank over your charge on my credit card. Beware do not book at this nasty hotel.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d2346353-r582724167-Clarion_Inn-Channelview_Texas.html</t>
   </si>
   <si>
-    <t>55609</t>
-  </si>
-  <si>
-    <t>2346353</t>
-  </si>
-  <si>
     <t>582724167</t>
   </si>
   <si>
@@ -219,10 +261,40 @@
     <t>After a long day we just needed a hot shower and a clean, comfortable bed, which this hotel provided. Checkin was easy and the room was clean and comfortable. The problem arose when we settled in for some much needed chill time and the TV was displaying the “no signal” logo. I called the front office and after much insistence I was told to unplug it and plug it back in. This didn’t work. I called back and was told the maintenance worker was gone for the day and there was nothing she could do. No offer to change rooms or discount the room fee. We have decided to always check the TV before settling in. MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>After a long day we just needed a hot shower and a clean, comfortable bed, which this hotel provided. Checkin was easy and the room was clean and comfortable. The problem arose when we settled in for some much needed chill time and the TV was displaying the “no signal” logo. I called the front office and after much insistence I was told to unplug it and plug it back in. This didn’t work. I called back and was told the maintenance worker was gone for the day and there was nothing she could do. No offer to change rooms or discount the room fee. We have decided to always check the TV before settling in. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d2346353-r571795045-Clarion_Inn-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>571795045</t>
+  </si>
+  <si>
+    <t>04/07/2018</t>
+  </si>
+  <si>
+    <t>Great Night’s Stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We’d driven 17 hours and wanted to get on the east side of downtown Houston before stopping for the night. Were only looking for a clean bed and shower and this place was great! Linens were especially nice - thick towels which you rarely get for this price. Room was perfectly adequate. I really liked that there was no extra charge for a king-sized bed and that they gave us a senior’s discount, making the price even lower than what was shown here on Trip Advisor. Would definitely stay again if headed in the same direction. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d2346353-r539117800-Clarion_Inn-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>539117800</t>
+  </si>
+  <si>
+    <t>11/07/2017</t>
+  </si>
+  <si>
+    <t>Pleasantly surprised</t>
+  </si>
+  <si>
+    <t>I was a little apprehensive at first but was pleasantly surprised. Room wa exceptionally clean although a little dated. Staff were excellent. Very reasonably priced restaurant and much better food than most hotel restaurants. My complaints to the chef.</t>
+  </si>
+  <si>
+    <t>November 2017</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d2346353-r535202789-Clarion_Inn-Channelview_Texas.html</t>
@@ -288,6 +360,42 @@
     <t>October 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d2346353-r430333538-Clarion_Inn-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>430333538</t>
+  </si>
+  <si>
+    <t>10/21/2016</t>
+  </si>
+  <si>
+    <t>Better than I expected</t>
+  </si>
+  <si>
+    <t>I'm not sure what some people on here are complaining about, but there is nothing wrong with this hotel. I stayed there last night (10- 20- 16), and wasn't quite sure what to expect after reading a few negative reviews on another site. I wasn't disappointed at all. The rooms seem to have been updated recently, and they are kept clean. The bed was comfortable, the Wi-Fi had issues at times, but other than that it was okay. The fact there is a lounge inside the hotel is a big bonus... and considering the drinks aren't expensive, that was even better. This place is actually pretty decent compared to some of the dumps that are in the area, so I'll definitely be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>I'm not sure what some people on here are complaining about, but there is nothing wrong with this hotel. I stayed there last night (10- 20- 16), and wasn't quite sure what to expect after reading a few negative reviews on another site. I wasn't disappointed at all. The rooms seem to have been updated recently, and they are kept clean. The bed was comfortable, the Wi-Fi had issues at times, but other than that it was okay. The fact there is a lounge inside the hotel is a big bonus... and considering the drinks aren't expensive, that was even better. This place is actually pretty decent compared to some of the dumps that are in the area, so I'll definitely be back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d2346353-r429659963-Clarion_Inn-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>429659963</t>
+  </si>
+  <si>
+    <t>10/19/2016</t>
+  </si>
+  <si>
+    <t>VERY WORN AND DATED</t>
+  </si>
+  <si>
+    <t>Stayed here on business as the place we we normally would have gone to was booked. Very disappointing, rooms were probably nice 30 years ago, but not anymore. Spent 10 minutes trying to find plug that I could charge my phone with, first one broken, second one so worn the charger just fell back out, all others in use ( outlets are scarce in older hotels) had to use GFCI outlet at sink in order to charge everything. There was a jacuzzi tub, as my back was killing me from flight I wanted to try that, but it did not work either, called front desk, they said they would get right back to me and never did. HVAC was loud as hell, seems like it is on its last legs, set it for 65 and it never got cooler than maybe 70.  Dinner was equally disappointing, beer choice was pretty sad, Bud on tap and almost all domestic with the one exception of Heinikein, breakfast was fine, except for their choice of coffee supplier, Folgers....MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here on business as the place we we normally would have gone to was booked. Very disappointing, rooms were probably nice 30 years ago, but not anymore. Spent 10 minutes trying to find plug that I could charge my phone with, first one broken, second one so worn the charger just fell back out, all others in use ( outlets are scarce in older hotels) had to use GFCI outlet at sink in order to charge everything. There was a jacuzzi tub, as my back was killing me from flight I wanted to try that, but it did not work either, called front desk, they said they would get right back to me and never did. HVAC was loud as hell, seems like it is on its last legs, set it for 65 and it never got cooler than maybe 70.  Dinner was equally disappointing, beer choice was pretty sad, Bud on tap and almost all domestic with the one exception of Heinikein, breakfast was fine, except for their choice of coffee supplier, Folgers....More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d2346353-r426909381-Clarion_Inn-Channelview_Texas.html</t>
   </si>
   <si>
@@ -342,6 +450,33 @@
     <t>April 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d2346353-r418566648-Clarion_Inn-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>418566648</t>
+  </si>
+  <si>
+    <t>09/14/2016</t>
+  </si>
+  <si>
+    <t>CLARION INN</t>
+  </si>
+  <si>
+    <t>Great hopsitality, bar is nice, nice pool, great prices at restaraunt. great clean rooms.Friendly service. room is a great sizegreat view of the pool close to acces to i-10great breakfastgreat fresh folgers coffee</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d2346353-r418490082-Clarion_Inn-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>418490082</t>
+  </si>
+  <si>
+    <t>great friendly</t>
+  </si>
+  <si>
+    <t>this was a nice place. breakfast was a full menu. that was new. pool was openFront desk staff super nice. monica was the best!reccomond this place for anyone staying in Houstonhousekeeping was great</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d2346353-r369523235-Clarion_Inn-Channelview_Texas.html</t>
   </si>
   <si>
@@ -393,6 +528,45 @@
     <t>March 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d2346353-r349258670-Clarion_Inn-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>349258670</t>
+  </si>
+  <si>
+    <t>02/19/2016</t>
+  </si>
+  <si>
+    <t>Free wifi</t>
+  </si>
+  <si>
+    <t>The rooms are clean, thats the only thing good I can say about this place.  Took 5 rooms before we found a TV that worked. Now 9 times out of 10 I dont care about TV. However, as their free wifi didnt work for longer then 5 minutes having a TV to pass the time was necessary.  We were here for over a week and the wifi worked once...numerous complaints to the front desk went unanswered. We also were unable to use the pool, we are from Canada there were up to 12 of us staying at this hotel it was on average 24°C or higher. You would think with no internet horrible television reception they would go out of their way to make accommodations for their customers, but alas no. If you just want a clean room to rest your head its a good place to go, if you rely on wifi when out of your country for business purposes go elsewhere. MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>The rooms are clean, thats the only thing good I can say about this place.  Took 5 rooms before we found a TV that worked. Now 9 times out of 10 I dont care about TV. However, as their free wifi didnt work for longer then 5 minutes having a TV to pass the time was necessary.  We were here for over a week and the wifi worked once...numerous complaints to the front desk went unanswered. We also were unable to use the pool, we are from Canada there were up to 12 of us staying at this hotel it was on average 24°C or higher. You would think with no internet horrible television reception they would go out of their way to make accommodations for their customers, but alas no. If you just want a clean room to rest your head its a good place to go, if you rely on wifi when out of your country for business purposes go elsewhere. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d2346353-r340340971-Clarion_Inn-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>340340971</t>
+  </si>
+  <si>
+    <t>01/15/2016</t>
+  </si>
+  <si>
+    <t>Nice stay</t>
+  </si>
+  <si>
+    <t>Had a nice stay here..staff is excellent. .fud is just ok..overall worth the money..ambience and location is gud...no elevator though..Internet connectivity. .WiFi. .is excellent. .rooms are very clean..</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d2346353-r338432504-Clarion_Inn-Channelview_Texas.html</t>
   </si>
   <si>
@@ -408,9 +582,6 @@
     <t>The desk clerk was just so thrilled to check us in....not! The rooms are clean but the beds are full sized not queen, so be prepared. There is only stairs so be prepared if you get a second floor to take stairs. To me no big deal, to others it could be. It is a little dated, could use an update but not too bad. Not sure about food or bar I did not go to either.</t>
   </si>
   <si>
-    <t>January 2016</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d2346353-r295801792-Clarion_Inn-Channelview_Texas.html</t>
   </si>
   <si>
@@ -442,6 +613,51 @@
   </si>
   <si>
     <t xml:space="preserve">Have stayed here a few times but as the last couple times stay was not so great was woke up at 2:30 am by loud drunks called front desk 2 times on same night told office again at check out there was no satisfaction there is no free breakfast was not pleased at all with this stay </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d2346353-r290541131-Clarion_Inn-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>290541131</t>
+  </si>
+  <si>
+    <t>07/19/2015</t>
+  </si>
+  <si>
+    <t>Great for business travelers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remember when regular hotels had room service?  This Clarion has a bar and a separate restaurant.  They offer room service with extremely reasonable prices.  They have smoking rooms!! There are also fridges, microwaves and a legit business center that consists of more than a solitary desktop running Windows 95.  Beds are comfortable and the wifi is strong.  Rooms are clean.  I can't imagine anything better for the price.  </t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d2346353-r275653106-Clarion_Inn-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>275653106</t>
+  </si>
+  <si>
+    <t>05/29/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good hotel but surely needs renovation </t>
+  </si>
+  <si>
+    <t>Stayed here for almost a week so had some good and some bad experiences. Rooms are little messed up and with old interiors. Surely hotel and rooms especially need some renovation and maintenance. Beds are old and make noise, hotel service is just average. Food however was quite good especially had good breakfast here everyday. Cheese Jalapeno poppers are must eat if ur here. Wish they provided some shuttle service also as location is quite far from downtown.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>ClarionInn77530, Manager at Clarion Inn, responded to this reviewResponded June 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 2, 2015</t>
+  </si>
+  <si>
+    <t>Stayed here for almost a week so had some good and some bad experiences. Rooms are little messed up and with old interiors. Surely hotel and rooms especially need some renovation and maintenance. Beds are old and make noise, hotel service is just average. Food however was quite good especially had good breakfast here everyday. Cheese Jalapeno poppers are must eat if ur here. Wish they provided some shuttle service also as location is quite far from downtown.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d2346353-r271025590-Clarion_Inn-Channelview_Texas.html</t>
@@ -530,6 +746,51 @@
     <t>Absolutely my favorite hotel. Wish I could pack this one up and take it with me!! Front desk and housekeeping are the BEST! Rooms are clean and they even have real coffee mugs and glasses for water in the rooms. Nice touch!!! They don't have the complimentary breakfast BUT the restaurant in the hotel is very reasonable and good, plus they do offer a breakfast buffet, for a price. The manager of the restaurant happened to be my server and he always has a smile and goes the extra mile.  The bar is a good place to unwind after a long day or just splashing around in the pool, and don't forget you can always order food from the restaurant if you don't want to travel out. The grounds are very well kept, makes you think you're in the tropics.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d2346353-r218756305-Clarion_Inn-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>218756305</t>
+  </si>
+  <si>
+    <t>07/31/2014</t>
+  </si>
+  <si>
+    <t>Worn out</t>
+  </si>
+  <si>
+    <t>I stayed here for four nights . It was a business trip and this hotel was chosen by my company for me. Place is worn out. it is mainly used by oil and trucking companies for their employees and drivers. there are several big rigs parked in the car parking area at any given time. Backside of the hotel faces railroad and you will get to enjoy seeing passing trains as well as big rigs parking directly in front of your room. Room was cleaned every day and it was satisfactory. to my surprise  they charged $8 for their continental breakfast first day which I did not continue with it the following days. Regardless of charge food was not good either. Also I have to mention that location is next to I-10 on the west service road. only one way to get in and if you miss it you need to go around and come back on the service road again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>ClarionInn77530, Manager at Clarion Inn, responded to this reviewResponded August 1, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 1, 2014</t>
+  </si>
+  <si>
+    <t>I stayed here for four nights . It was a business trip and this hotel was chosen by my company for me. Place is worn out. it is mainly used by oil and trucking companies for their employees and drivers. there are several big rigs parked in the car parking area at any given time. Backside of the hotel faces railroad and you will get to enjoy seeing passing trains as well as big rigs parking directly in front of your room. Room was cleaned every day and it was satisfactory. to my surprise  they charged $8 for their continental breakfast first day which I did not continue with it the following days. Regardless of charge food was not good either. Also I have to mention that location is next to I-10 on the west service road. only one way to get in and if you miss it you need to go around and come back on the service road again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d2346353-r216101413-Clarion_Inn-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>216101413</t>
+  </si>
+  <si>
+    <t>07/18/2014</t>
+  </si>
+  <si>
+    <t>Clean and comfortable</t>
+  </si>
+  <si>
+    <t>I have to stay in mid-class hotels. For the price it was comfortable. We enjoyed being able to eat and get wine with our meal and not have to leave. I recommend the hotel and stay there often when I'm working out of the Houston Port. You can get some bad hotels in that part of town. MoreShow less</t>
+  </si>
+  <si>
+    <t>I have to stay in mid-class hotels. For the price it was comfortable. We enjoyed being able to eat and get wine with our meal and not have to leave. I recommend the hotel and stay there often when I'm working out of the Houston Port. You can get some bad hotels in that part of town. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d2346353-r211194114-Clarion_Inn-Channelview_Texas.html</t>
   </si>
   <si>
@@ -593,6 +854,45 @@
     <t>The room was clean and orderly; however, it did not have a refrigerator microwave was posted on their website. The breakfast was good and the help was very nice. I would stay here again, but I would ask for a room that has a refrigerator and microwave. It is evident that some rooms are not being used. They need to get rid of the 18-wheel trailers parkd in their rear. When added bonus of the room is it's near the rail yards. If you like train noises this is the place to stay. Personally I do.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d2346353-r199651944-Clarion_Inn-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>199651944</t>
+  </si>
+  <si>
+    <t>04/02/2014</t>
+  </si>
+  <si>
+    <t>Jerome</t>
+  </si>
+  <si>
+    <t>Very nice. Staff and service was excellent. Room comfortable and amenities were great. Reasonable rates. Would definitely stay again. Could have more channels on television. Close to stores and restaurants.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>Very nice. Staff and service was excellent. Room comfortable and amenities were great. Reasonable rates. Would definitely stay again. Could have more channels on television. Close to stores and restaurants.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d2346353-r197304734-Clarion_Inn-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>197304734</t>
+  </si>
+  <si>
+    <t>03/13/2014</t>
+  </si>
+  <si>
+    <t>Pretty good</t>
+  </si>
+  <si>
+    <t>We were a little unsure about this area of town, but the hotel was actually clean and renovated. The lawn needed to be mowed and the lobby smelled like cigarette smoke but our car didn't get broken into. I thought it might be loud, but I really couldn't hear the freeway. MoreShow less</t>
+  </si>
+  <si>
+    <t>We were a little unsure about this area of town, but the hotel was actually clean and renovated. The lawn needed to be mowed and the lobby smelled like cigarette smoke but our car didn't get broken into. I thought it might be loud, but I really couldn't hear the freeway. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d2346353-r187169177-Clarion_Inn-Channelview_Texas.html</t>
   </si>
   <si>
@@ -651,6 +951,57 @@
   </si>
   <si>
     <t>We stayed two nights. Was very pleased. Very clean and very good service. We would recommend this hotel for stay! Easy access to interstate and surrounding area. Very friendly staff! The restaurant was fine. Not any more expensive than deliveries and the food was fine! We enjoyed the bar as well. All the people are so friendly. The room we had with a king size bed could of been bigger but it was fine. I was impressed they came in changed our linens and towels and cleaned while we were away after our first nights stay. I like that.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d2346353-r156552799-Clarion_Inn-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>156552799</t>
+  </si>
+  <si>
+    <t>04/03/2013</t>
+  </si>
+  <si>
+    <t>Very Clean</t>
+  </si>
+  <si>
+    <t>Stayed here two nights doing a class for work.  Rooms are really clean and smell fresh.  The breakfast bar is prob one of the best in any of the hotels I've been to (  actual hot breakfast, not just cereals and toast )  Ordered a steak for dinner and it was really good.  Overall hotel is clean and well kept.   Only dislike I had is the pillows are kinda small. MoreShow less</t>
+  </si>
+  <si>
+    <t>Clarion I, Front Office Manager at Clarion Inn, responded to this reviewResponded April 9, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 9, 2013</t>
+  </si>
+  <si>
+    <t>Stayed here two nights doing a class for work.  Rooms are really clean and smell fresh.  The breakfast bar is prob one of the best in any of the hotels I've been to (  actual hot breakfast, not just cereals and toast )  Ordered a steak for dinner and it was really good.  Overall hotel is clean and well kept.   Only dislike I had is the pillows are kinda small. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d2346353-r145532946-Clarion_Inn-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>145532946</t>
+  </si>
+  <si>
+    <t>11/16/2012</t>
+  </si>
+  <si>
+    <t>VAL is a ROCK STAR!</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel during business meeting and Val was everywhere. He was very helpful during our meetings, lunch and breakfast. He did all this with a huge smile on his face. What a rock star. Hotel was very clean, the one not so pleasant about the hotel is the smoking bar. Although I must say it works for this location.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>Clarion I, Front Office Manager at Clarion Inn, responded to this reviewResponded March 29, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 29, 2013</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel during business meeting and Val was everywhere. He was very helpful during our meetings, lunch and breakfast. He did all this with a huge smile on his face. What a rock star. Hotel was very clean, the one not so pleasant about the hotel is the smoking bar. Although I must say it works for this location.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d2346353-r131251955-Clarion_Inn-Channelview_Texas.html</t>
@@ -1233,14 +1584,10 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N2" t="s">
-        <v>52</v>
-      </c>
-      <c r="O2" t="s">
-        <v>53</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
@@ -1253,7 +1600,7 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
@@ -1269,34 +1616,34 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
         <v>55</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>56</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>57</v>
-      </c>
-      <c r="K3" t="s">
-        <v>58</v>
-      </c>
-      <c r="L3" t="s">
-        <v>59</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1310,7 +1657,7 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
@@ -1326,31 +1673,31 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
         <v>62</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>63</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>64</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>65</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
         <v>66</v>
-      </c>
-      <c r="M4" t="n">
-        <v>3</v>
-      </c>
-      <c r="N4" t="s">
-        <v>60</v>
       </c>
       <c r="O4" t="s">
         <v>67</v>
@@ -1404,13 +1751,13 @@
         <v>73</v>
       </c>
       <c r="M5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N5" t="s">
         <v>74</v>
       </c>
       <c r="O5" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1440,7 +1787,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -1449,36 +1796,32 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="O6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P6" t="s"/>
-      <c r="Q6" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>5</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
@@ -1522,13 +1865,13 @@
         <v>86</v>
       </c>
       <c r="M7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="O7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1558,34 +1901,34 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
         <v>88</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>89</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>90</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>91</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
         <v>92</v>
       </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="s">
-        <v>87</v>
-      </c>
       <c r="O8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1599,7 +1942,7 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9">
@@ -1642,20 +1985,14 @@
         <v>98</v>
       </c>
       <c r="O9" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="P9" t="s"/>
-      <c r="Q9" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
-      <c r="S9" t="n">
-        <v>5</v>
-      </c>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>5</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
@@ -1678,43 +2015,41 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
         <v>100</v>
       </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>101</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>102</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>103</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
         <v>104</v>
       </c>
-      <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s">
-        <v>105</v>
-      </c>
       <c r="O10" t="s">
-        <v>61</v>
-      </c>
-      <c r="P10" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q10" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
       <c r="R10" t="s"/>
-      <c r="S10" t="n">
-        <v>5</v>
-      </c>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
         <v>5</v>
@@ -1725,7 +2060,7 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11">
@@ -1762,13 +2097,13 @@
         <v>110</v>
       </c>
       <c r="M11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N11" t="s">
         <v>111</v>
       </c>
       <c r="O11" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1819,13 +2154,13 @@
         <v>116</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="O12" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -1839,7 +2174,7 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13">
@@ -1855,7 +2190,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -1864,39 +2199,43 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="O13" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
-      <c r="S13" t="s"/>
+      <c r="S13" t="n">
+        <v>2</v>
+      </c>
       <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14">
@@ -1912,7 +2251,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -1921,25 +2260,25 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K14" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="O14" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -1953,7 +2292,7 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15">
@@ -1990,23 +2329,33 @@
         <v>133</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="s"/>
-      <c r="O15" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>134</v>
+      </c>
+      <c r="O15" t="s">
+        <v>135</v>
+      </c>
       <c r="P15" t="s"/>
-      <c r="Q15" t="s"/>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
       <c r="R15" t="s"/>
-      <c r="S15" t="s"/>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
       <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16">
@@ -2022,7 +2371,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2031,35 +2380,45 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J16" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M16" t="n">
-        <v>3</v>
-      </c>
-      <c r="N16" t="s"/>
-      <c r="O16" t="s"/>
-      <c r="P16" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>141</v>
+      </c>
+      <c r="O16" t="s">
+        <v>75</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
       <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
-      <c r="S16" t="s"/>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17">
@@ -2075,7 +2434,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2084,34 +2443,34 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="J17" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K17" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L17" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="O17" t="s">
-        <v>61</v>
-      </c>
-      <c r="P17" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
       <c r="Q17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R17" t="s"/>
-      <c r="S17" t="n">
-        <v>5</v>
-      </c>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
         <v>5</v>
@@ -2119,14 +2478,10 @@
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s">
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
         <v>146</v>
-      </c>
-      <c r="X17" t="s">
-        <v>147</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="18">
@@ -2142,58 +2497,54 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
+        <v>147</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>148</v>
+      </c>
+      <c r="J18" t="s">
+        <v>144</v>
+      </c>
+      <c r="K18" t="s">
         <v>149</v>
       </c>
-      <c r="G18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="L18" t="s">
         <v>150</v>
       </c>
-      <c r="J18" t="s">
-        <v>151</v>
-      </c>
-      <c r="K18" t="s">
-        <v>152</v>
-      </c>
-      <c r="L18" t="s">
-        <v>153</v>
-      </c>
       <c r="M18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="O18" t="s">
-        <v>155</v>
+        <v>75</v>
       </c>
       <c r="P18" t="n">
         <v>3</v>
       </c>
-      <c r="Q18" t="n">
-        <v>3</v>
-      </c>
-      <c r="R18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s">
-        <v>156</v>
-      </c>
-      <c r="X18" t="s">
-        <v>157</v>
-      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19">
@@ -2209,7 +2560,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2218,49 +2569,39 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="J19" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="K19" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="L19" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="O19" t="s">
-        <v>61</v>
-      </c>
-      <c r="P19" t="n">
-        <v>5</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
-      <c r="R19" t="n">
-        <v>5</v>
-      </c>
+      <c r="R19" t="s"/>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>5</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s">
-        <v>165</v>
-      </c>
-      <c r="X19" t="s">
-        <v>166</v>
-      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20">
@@ -2276,7 +2617,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2285,53 +2626,39 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="J20" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="K20" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="L20" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="M20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="O20" t="s">
-        <v>61</v>
-      </c>
-      <c r="P20" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>3</v>
-      </c>
-      <c r="R20" t="n">
-        <v>2</v>
-      </c>
-      <c r="S20" t="n">
-        <v>3</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>4</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s">
-        <v>165</v>
-      </c>
-      <c r="X20" t="s">
-        <v>166</v>
-      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21">
@@ -2347,7 +2674,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2356,49 +2683,39 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="J21" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="K21" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="L21" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="M21" t="n">
-        <v>4</v>
-      </c>
-      <c r="N21" t="s"/>
-      <c r="O21" t="s"/>
-      <c r="P21" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>5</v>
-      </c>
-      <c r="R21" t="n">
-        <v>5</v>
-      </c>
-      <c r="S21" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>167</v>
+      </c>
+      <c r="O21" t="s">
+        <v>75</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>5</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s">
-        <v>165</v>
-      </c>
-      <c r="X21" t="s">
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
         <v>166</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="22">
@@ -2414,7 +2731,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2423,25 +2740,25 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="J22" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="K22" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="L22" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="M22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N22" t="s">
         <v>173</v>
       </c>
       <c r="O22" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -2452,14 +2769,10 @@
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s">
-        <v>186</v>
-      </c>
-      <c r="X22" t="s">
-        <v>187</v>
-      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23">
@@ -2475,7 +2788,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -2484,53 +2797,39 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="J23" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="K23" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="L23" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="M23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="O23" t="s">
-        <v>61</v>
-      </c>
-      <c r="P23" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>5</v>
-      </c>
-      <c r="R23" t="n">
-        <v>5</v>
-      </c>
-      <c r="S23" t="n">
-        <v>5</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>5</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s">
-        <v>186</v>
-      </c>
-      <c r="X23" t="s">
-        <v>187</v>
-      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24">
@@ -2546,7 +2845,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -2555,49 +2854,39 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="J24" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="K24" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="L24" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="M24" t="n">
-        <v>5</v>
-      </c>
-      <c r="N24" t="s"/>
-      <c r="O24" t="s"/>
-      <c r="P24" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>5</v>
-      </c>
-      <c r="R24" t="n">
-        <v>5</v>
-      </c>
-      <c r="S24" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>180</v>
+      </c>
+      <c r="O24" t="s">
+        <v>75</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>5</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s">
-        <v>186</v>
-      </c>
-      <c r="X24" t="s">
-        <v>187</v>
-      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25">
@@ -2613,7 +2902,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -2622,53 +2911,35 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="J25" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="K25" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="L25" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="M25" t="n">
-        <v>4</v>
-      </c>
-      <c r="N25" t="s">
-        <v>207</v>
-      </c>
-      <c r="O25" t="s">
-        <v>67</v>
-      </c>
-      <c r="P25" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>5</v>
-      </c>
-      <c r="R25" t="n">
-        <v>5</v>
-      </c>
-      <c r="S25" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N25" t="s"/>
+      <c r="O25" t="s"/>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>5</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s">
-        <v>186</v>
-      </c>
-      <c r="X25" t="s">
-        <v>187</v>
-      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26">
@@ -2684,7 +2955,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -2693,53 +2964,35 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="J26" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="K26" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="L26" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="M26" t="n">
-        <v>4</v>
-      </c>
-      <c r="N26" t="s">
-        <v>214</v>
-      </c>
-      <c r="O26" t="s">
-        <v>61</v>
-      </c>
-      <c r="P26" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q26" t="n">
         <v>3</v>
       </c>
-      <c r="R26" t="n">
-        <v>3</v>
-      </c>
-      <c r="S26" t="n">
-        <v>4</v>
-      </c>
+      <c r="N26" t="s"/>
+      <c r="O26" t="s"/>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>4</v>
-      </c>
+      <c r="U26" t="s"/>
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s">
-        <v>215</v>
-      </c>
-      <c r="X26" t="s">
-        <v>216</v>
-      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27">
@@ -2755,7 +3008,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -2764,53 +3017,1231 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="J27" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="K27" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="L27" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
+        <v>202</v>
+      </c>
+      <c r="O27" t="s">
+        <v>75</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1079</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>203</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>204</v>
+      </c>
+      <c r="J28" t="s">
+        <v>205</v>
+      </c>
+      <c r="K28" t="s">
+        <v>206</v>
+      </c>
+      <c r="L28" t="s">
+        <v>207</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>208</v>
+      </c>
+      <c r="O28" t="s">
+        <v>59</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>209</v>
+      </c>
+      <c r="X28" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1079</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>212</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>213</v>
+      </c>
+      <c r="J29" t="s">
+        <v>214</v>
+      </c>
+      <c r="K29" t="s">
+        <v>215</v>
+      </c>
+      <c r="L29" t="s">
+        <v>216</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>217</v>
+      </c>
+      <c r="O29" t="s">
+        <v>75</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>218</v>
+      </c>
+      <c r="X29" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1079</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>221</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>222</v>
+      </c>
+      <c r="J30" t="s">
         <v>223</v>
       </c>
-      <c r="O27" t="s">
-        <v>61</v>
-      </c>
-      <c r="P27" t="n">
+      <c r="K30" t="s">
+        <v>224</v>
+      </c>
+      <c r="L30" t="s">
+        <v>225</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>226</v>
+      </c>
+      <c r="O30" t="s">
+        <v>227</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>3</v>
+      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>3</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>228</v>
+      </c>
+      <c r="X30" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1079</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>231</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>232</v>
+      </c>
+      <c r="J31" t="s">
+        <v>233</v>
+      </c>
+      <c r="K31" t="s">
+        <v>234</v>
+      </c>
+      <c r="L31" t="s">
+        <v>235</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>236</v>
+      </c>
+      <c r="O31" t="s">
+        <v>75</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>237</v>
+      </c>
+      <c r="X31" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1079</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>240</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>241</v>
+      </c>
+      <c r="J32" t="s">
+        <v>242</v>
+      </c>
+      <c r="K32" t="s">
+        <v>243</v>
+      </c>
+      <c r="L32" t="s">
+        <v>244</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2</v>
+      </c>
+      <c r="N32" t="s">
+        <v>245</v>
+      </c>
+      <c r="O32" t="s">
+        <v>75</v>
+      </c>
+      <c r="P32" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="n">
+        <v>2</v>
+      </c>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>3</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>246</v>
+      </c>
+      <c r="X32" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1079</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>249</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>250</v>
+      </c>
+      <c r="J33" t="s">
+        <v>251</v>
+      </c>
+      <c r="K33" t="s">
+        <v>252</v>
+      </c>
+      <c r="L33" t="s">
+        <v>253</v>
+      </c>
+      <c r="M33" t="n">
         <v>4</v>
       </c>
-      <c r="Q27" t="n">
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>237</v>
+      </c>
+      <c r="X33" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1079</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>255</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>256</v>
+      </c>
+      <c r="J34" t="s">
+        <v>257</v>
+      </c>
+      <c r="K34" t="s">
+        <v>258</v>
+      </c>
+      <c r="L34" t="s">
+        <v>259</v>
+      </c>
+      <c r="M34" t="n">
         <v>3</v>
       </c>
-      <c r="R27" t="n">
-        <v>5</v>
-      </c>
-      <c r="S27" t="n">
+      <c r="N34" t="s">
+        <v>260</v>
+      </c>
+      <c r="O34" t="s">
+        <v>75</v>
+      </c>
+      <c r="P34" t="n">
         <v>3</v>
       </c>
-      <c r="T27" t="s"/>
-      <c r="U27" t="n">
-        <v>5</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" t="s">
-        <v>215</v>
-      </c>
-      <c r="X27" t="s">
-        <v>216</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>224</v>
+      <c r="Q34" t="n">
+        <v>3</v>
+      </c>
+      <c r="R34" t="n">
+        <v>2</v>
+      </c>
+      <c r="S34" t="n">
+        <v>3</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>237</v>
+      </c>
+      <c r="X34" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1079</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>262</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>263</v>
+      </c>
+      <c r="J35" t="s">
+        <v>264</v>
+      </c>
+      <c r="K35" t="s">
+        <v>265</v>
+      </c>
+      <c r="L35" t="s">
+        <v>266</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s"/>
+      <c r="O35" t="s"/>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>237</v>
+      </c>
+      <c r="X35" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1079</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>268</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>269</v>
+      </c>
+      <c r="J36" t="s">
+        <v>270</v>
+      </c>
+      <c r="K36" t="s">
+        <v>271</v>
+      </c>
+      <c r="L36" t="s">
+        <v>272</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>260</v>
+      </c>
+      <c r="O36" t="s">
+        <v>135</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>273</v>
+      </c>
+      <c r="X36" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1079</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>276</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>277</v>
+      </c>
+      <c r="J37" t="s">
+        <v>278</v>
+      </c>
+      <c r="K37" t="s">
+        <v>279</v>
+      </c>
+      <c r="L37" t="s">
+        <v>280</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>281</v>
+      </c>
+      <c r="O37" t="s">
+        <v>135</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>273</v>
+      </c>
+      <c r="X37" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>1079</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>283</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>284</v>
+      </c>
+      <c r="J38" t="s">
+        <v>285</v>
+      </c>
+      <c r="K38" t="s">
+        <v>286</v>
+      </c>
+      <c r="L38" t="s">
+        <v>287</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>273</v>
+      </c>
+      <c r="X38" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1079</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>289</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>290</v>
+      </c>
+      <c r="J39" t="s">
+        <v>291</v>
+      </c>
+      <c r="K39" t="s">
+        <v>292</v>
+      </c>
+      <c r="L39" t="s">
+        <v>293</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>294</v>
+      </c>
+      <c r="O39" t="s">
+        <v>75</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>273</v>
+      </c>
+      <c r="X39" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>1079</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>296</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>297</v>
+      </c>
+      <c r="J40" t="s">
+        <v>298</v>
+      </c>
+      <c r="K40" t="s">
+        <v>299</v>
+      </c>
+      <c r="L40" t="s">
+        <v>300</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s"/>
+      <c r="O40" t="s"/>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>273</v>
+      </c>
+      <c r="X40" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>1079</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>302</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>303</v>
+      </c>
+      <c r="J41" t="s">
+        <v>304</v>
+      </c>
+      <c r="K41" t="s">
+        <v>305</v>
+      </c>
+      <c r="L41" t="s">
+        <v>306</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>307</v>
+      </c>
+      <c r="O41" t="s">
+        <v>59</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>273</v>
+      </c>
+      <c r="X41" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1079</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>309</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>310</v>
+      </c>
+      <c r="J42" t="s">
+        <v>311</v>
+      </c>
+      <c r="K42" t="s">
+        <v>312</v>
+      </c>
+      <c r="L42" t="s">
+        <v>313</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s"/>
+      <c r="O42" t="s"/>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>314</v>
+      </c>
+      <c r="X42" t="s">
+        <v>315</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1079</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>317</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>318</v>
+      </c>
+      <c r="J43" t="s">
+        <v>319</v>
+      </c>
+      <c r="K43" t="s">
+        <v>320</v>
+      </c>
+      <c r="L43" t="s">
+        <v>321</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>322</v>
+      </c>
+      <c r="O43" t="s">
+        <v>75</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>3</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>323</v>
+      </c>
+      <c r="X43" t="s">
+        <v>324</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1079</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>326</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>327</v>
+      </c>
+      <c r="J44" t="s">
+        <v>328</v>
+      </c>
+      <c r="K44" t="s">
+        <v>329</v>
+      </c>
+      <c r="L44" t="s">
+        <v>330</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>331</v>
+      </c>
+      <c r="O44" t="s">
+        <v>75</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>3</v>
+      </c>
+      <c r="R44" t="n">
+        <v>3</v>
+      </c>
+      <c r="S44" t="n">
+        <v>4</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>332</v>
+      </c>
+      <c r="X44" t="s">
+        <v>333</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1079</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>335</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>336</v>
+      </c>
+      <c r="J45" t="s">
+        <v>337</v>
+      </c>
+      <c r="K45" t="s">
+        <v>338</v>
+      </c>
+      <c r="L45" t="s">
+        <v>339</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>340</v>
+      </c>
+      <c r="O45" t="s">
+        <v>75</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>3</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>3</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>332</v>
+      </c>
+      <c r="X45" t="s">
+        <v>333</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>341</v>
       </c>
     </row>
   </sheetData>
